--- a/biology/Médecine/Johann_Christian_Gottlieb_Ackermann/Johann_Christian_Gottlieb_Ackermann.xlsx
+++ b/biology/Médecine/Johann_Christian_Gottlieb_Ackermann/Johann_Christian_Gottlieb_Ackermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christian Gottlieb Ackermann est un médecin allemand. Né à Zeulenrode le 17 février 1756, il est mort à Altdorf bei Nürnberg le 9 mars 1801.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève d'Ernst Gottfried Baldinger à Iena, puis de Richter, Weisbey et Christian Gottlob Heyne à Göttingen, il enseigne quelque temps à université de Halle avant de retourner pratiquer la médecine dans sa ville d'origine. Nommé plus tard professeur de Chimie à l'université d'Altdorf (1786), il y enseigne la médecine jusqu'à sa mort de tuberculose à l'âge de 45 ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui doit de nombreuses traductions, entre autres des ouvrages de Tissot et de Romazzini, et des commentaires sur des auteurs anciens. Il collabora à l'édition de la Bibliotheca graeca de Fabricius (1790-1796). Ses biographies d'Hippocrate, Galien et de Rufus furent très considérées en son temps.
 </t>
